--- a/gd/标准化文档/货币通用规范.xlsx
+++ b/gd/标准化文档/货币通用规范.xlsx
@@ -25,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>统一货币的真实上限与显示上限，即货币的真实上限就是货币的显示上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前显示上限为9位（带，为11位），则金币的真实上限也为9位，即最大为999999999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,6 +153,54 @@
   </si>
   <si>
     <t>剩余货币待定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币/钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超出上限处理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用二级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现/隐藏规则</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第一次获得金币/钻石超出（达到）金币/钻石上限时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第一次获得金币/钻石超出（达到）金币/钻石上限时，弹出提示二级，之后不再提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加金币、钻石达到上限时，弹出二级提示逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前显示上限为9位（带，为11位），则金币/钻石的真实上限也为9位，即最大为999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字多语言ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +270,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -431,12 +488,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +536,16 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -519,8 +589,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,6 +604,212 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171071</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102637</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2295525" y="1485900"/>
+          <a:ext cx="3361946" cy="1969537"/>
+          <a:chOff x="2295525" y="1485900"/>
+          <a:chExt cx="3361946" cy="1969537"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2295525" y="1485900"/>
+            <a:ext cx="3361946" cy="1969537"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2514600" y="1762125"/>
+            <a:ext cx="2895600" cy="1524000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="图片 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3524250" y="2886075"/>
+            <a:ext cx="866667" cy="514286"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="文本框 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2628900" y="2114550"/>
+            <a:ext cx="2790508" cy="334451"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>金币</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>钻石将</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>达到上限，无法获得</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>超出部分</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="900" b="1">
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,10 +1088,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -841,10 +1118,10 @@
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -871,10 +1148,10 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -901,10 +1178,10 @@
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="8"/>
@@ -944,7 +1221,7 @@
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -959,17 +1236,17 @@
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -977,14 +1254,14 @@
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -992,16 +1269,16 @@
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1009,14 +1286,14 @@
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1024,14 +1301,14 @@
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1039,14 +1316,14 @@
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1054,14 +1331,14 @@
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1069,14 +1346,14 @@
     <row r="18" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1096,25 +1373,25 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1137,25 +1414,36 @@
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="14">
         <v>42287</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C23" s="14">
+        <v>42293</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1170,16 +1458,19 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H23" location="货币通用规则!C6" display="添加金币、钻石达到上限时，弹出二级提示逻辑"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1187,33 +1478,90 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D20" s="15"/>
+      <c r="E20" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D22" s="15"/>
+      <c r="E22" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D23" s="15"/>
+      <c r="E23" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="15"/>
+      <c r="E25" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gd/标准化文档/货币通用规范.xlsx
+++ b/gd/标准化文档/货币通用规范.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\标准化文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\标准化文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>统一货币的真实上限与显示上限，即货币的真实上限就是货币的显示上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,44 @@
   </si>
   <si>
     <t>gold_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币显示时，每三位加一个逗号隔开</t>
+  </si>
+  <si>
+    <t>参考效果</t>
+  </si>
+  <si>
+    <t>通用显示规则1——逗号版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用显示规则2——KM版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当货币位数小于5位时（即0—9999），正常显示数字（无逗号）；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当货币位数大于等于5位且小于7位时（即10000—999999），显示对应的是10K——999K；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当货币位数大于大于7位时（即1000000—999999999），显示对应的是10M——999M。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加货币显示的两种规范</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +325,48 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -488,15 +561,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,10 +666,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="4"/>
+    <cellStyle name="普通 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,13 +705,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171071</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>102637</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -628,7 +721,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2295525" y="1485900"/>
+          <a:off x="2295525" y="3581400"/>
           <a:ext cx="3361946" cy="1969537"/>
           <a:chOff x="2295525" y="1485900"/>
           <a:chExt cx="3361946" cy="1969537"/>
@@ -807,6 +900,44 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>199915</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="1466850"/>
+          <a:ext cx="885715" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1075,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1443,6 +1574,18 @@
       </c>
       <c r="H23" s="18" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C24" s="14">
+        <v>42301</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1467,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1478,84 +1621,230 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C5" s="1" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="1" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="1" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="15" t="s">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D20" s="15"/>
-      <c r="E20" s="16" t="s">
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D30" s="15"/>
+      <c r="E30" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D21" s="15" t="s">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D22" s="15"/>
-      <c r="E22" s="16" t="s">
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D32" s="15"/>
+      <c r="E32" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D23" s="15"/>
-      <c r="E23" s="16" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D33" s="15"/>
+      <c r="E33" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D24" s="15" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D34" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="15"/>
-      <c r="E25" s="17" t="s">
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="15"/>
+      <c r="E35" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/gd/标准化文档/货币通用规范.xlsx
+++ b/gd/标准化文档/货币通用规范.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\标准化文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\标准化文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="货币通用规则" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>统一货币的真实上限与显示上限，即货币的真实上限就是货币的显示上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,14 +176,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>在第一次获得金币/钻石超出（达到）金币/钻石上限时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在第一次获得金币/钻石超出（达到）金币/钻石上限时，弹出提示二级，之后不再提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加金币、钻石达到上限时，弹出二级提示逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +231,18 @@
   </si>
   <si>
     <t>添加货币显示的两种规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每次打开客户端第一次获得金币/钻石超出（达到）金币/钻石上限时，弹出提示二级，之后不再提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每次打开客户端第一次获得金币/钻石超出（达到）金币/钻石上限时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数记录在内存，即每次结束进程重新计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,48 +628,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +639,48 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -704,15 +708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171071</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102637</xdr:rowOff>
+      <xdr:colOff>180596</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>150262</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -721,7 +725,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2295525" y="3581400"/>
+          <a:off x="2305050" y="3838575"/>
           <a:ext cx="3361946" cy="1969537"/>
           <a:chOff x="2295525" y="1485900"/>
           <a:chExt cx="3361946" cy="1969537"/>
@@ -1208,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -1367,17 +1371,17 @@
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1388,11 +1392,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1405,11 +1409,11 @@
       <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1420,11 +1424,11 @@
         <v>12</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1435,11 +1439,11 @@
         <v>13</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1450,11 +1454,11 @@
         <v>14</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1465,11 +1469,11 @@
         <v>15</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1480,11 +1484,11 @@
         <v>16</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1573,19 +1577,19 @@
         <v>27</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="C24" s="14">
         <v>42301</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="24"/>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1612,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1632,150 +1636,150 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="34"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
@@ -1784,7 +1788,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1794,7 +1798,12 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.15">
@@ -1811,20 +1820,20 @@
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="16"/>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="15"/>
       <c r="E32" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D33" s="15"/>
       <c r="E33" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
@@ -1836,7 +1845,7 @@
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D35" s="15"/>
       <c r="E35" s="17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
